--- a/NLP Project.xlsx
+++ b/NLP Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aakul\Documents\GitHub\NLP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5836159F-0545-4EB6-9447-6F6363673B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A6348E-C9BE-43B6-82BE-1EABEB20785E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{958C9068-7ECA-43CB-9360-D82EC1D8799E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>Akhil</t>
   </si>
@@ -179,12 +179,6 @@
     <t>Step 1: Collect Data/Save Dataframes Separate</t>
   </si>
   <si>
-    <t>Yahoo Finance News</t>
-  </si>
-  <si>
-    <t>Google Finance News</t>
-  </si>
-  <si>
     <t>Step 2: Run Sentiment Analysis</t>
   </si>
   <si>
@@ -240,6 +234,9 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Seeking Alpha</t>
   </si>
 </sst>
 </file>
@@ -289,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -523,11 +520,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,9 +578,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,45 +617,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,22 +1116,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1214,7 +1221,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,80 +1237,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="F1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="K1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="P1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="K1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="P1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="U1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Z1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Z1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
     </row>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="F2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="P2" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="P2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
-      <c r="U2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Z2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="33"/>
+      <c r="U2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Z2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -1324,15 +1331,15 @@
       <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="40"/>
       <c r="K3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>43</v>
@@ -1341,25 +1348,25 @@
         <v>44</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="28"/>
+      <c r="X3" s="27"/>
       <c r="Z3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="28"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
@@ -1371,27 +1378,27 @@
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="24"/>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="12"/>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="18"/>
-      <c r="P4" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
+      <c r="P4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
       <c r="W4" s="21"/>
@@ -1403,7 +1410,7 @@
     </row>
     <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>45</v>
@@ -1411,31 +1418,31 @@
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="25"/>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="13"/>
-      <c r="K5" s="34"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="19"/>
-      <c r="P5" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
+      <c r="P5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="33"/>
       <c r="U5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>1</v>
@@ -1443,7 +1450,7 @@
       <c r="W5" s="22"/>
       <c r="X5" s="19"/>
       <c r="Z5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>1</v>
@@ -1453,7 +1460,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>45</v>
@@ -1461,7 +1468,7 @@
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="25"/>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1470,16 +1477,16 @@
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="13"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="19"/>
       <c r="U6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>0</v>
@@ -1487,7 +1494,7 @@
       <c r="W6" s="22"/>
       <c r="X6" s="19"/>
       <c r="Z6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>0</v>
@@ -1505,10 +1512,13 @@
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="24"/>
+      <c r="F7" s="41" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="13"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="19"/>
@@ -1522,24 +1532,30 @@
       <c r="AC7" s="19"/>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="16"/>
       <c r="I8" s="13"/>
-      <c r="K8" s="34"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="19"/>
-      <c r="P8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
+      <c r="P8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
       <c r="U8" s="4"/>
       <c r="V8" s="5"/>
       <c r="W8" s="22"/>
@@ -1555,16 +1571,16 @@
       <c r="G9" s="5"/>
       <c r="H9" s="16"/>
       <c r="I9" s="13"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="19"/>
-      <c r="P9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
+      <c r="P9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
       <c r="U9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="23"/>
@@ -1583,7 +1599,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="16"/>
       <c r="I10" s="13"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="19"/>
@@ -1597,7 +1613,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="17"/>
       <c r="I11" s="14"/>
-      <c r="K11" s="34"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="19"/>
@@ -1607,7 +1623,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13"/>
-      <c r="K12" s="34"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="19"/>
@@ -1618,54 +1634,58 @@
       <c r="C13" s="7"/>
       <c r="D13" s="14"/>
       <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="K13" s="38"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="34"/>
+        <v>65</v>
+      </c>
+      <c r="K14" s="38"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K15" s="35"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A2:D2"/>
@@ -1673,16 +1693,12 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K4:K9"/>
     <mergeCell ref="K10:K15"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
